--- a/biology/Botanique/Gonolobus/Gonolobus.xlsx
+++ b/biology/Botanique/Gonolobus/Gonolobus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gonolobus est un genre de plantes dicotylédones de la famille des Apocynaceae, sous-famille des Asclepiadoideae, originaire des régions tropicales d'Amérique, du sud des États-Unis au nord de l'Argentine, qui comprend environ 110 espèces acceptées. Ce sont des plantes grimpantes volubiles, à sève laiteuse (latex).
 </t>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymes
-Selon Plants of the World online (POWO)                (13 novembre 2020)[2] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Plants of the World online (POWO)                (13 novembre 2020) :
 Baclea E.Fourn.
 Exolobus E.Fourn.
 Fimbristemma Turcz.
@@ -549,9 +566,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (13 novembre 2020)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (13 novembre 2020) :
 Gonolobus absalonensis Krings (2007)
 Gonolobus albiflorus W.D.Stevens (2005)
 Gonolobus albomarginatus (Pittier) Woodson (1941)
